--- a/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,28 +651,33 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Generic.1.0.xlsx
@@ -182,6 +182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -266,7 +269,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
